--- a/spreadsheets/Zac.xlsx
+++ b/spreadsheets/Zac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017AD17D-95A0-47AC-ACD3-D995925D9512}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA56C78F-7553-475D-A733-7AF664F7CA7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="33570" yWindow="1890" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>https://discord.gg/ZGDU5DE</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KL2quHP.png</t>
   </si>
 </sst>
 </file>
@@ -881,7 +884,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +984,9 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1021,10 +1027,11 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{30573B5C-DC11-43EF-9CD4-150E3A014173}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{21079588-2250-4546-8FBD-A683812B3021}"/>
     <hyperlink ref="B8" r:id="rId4" xr:uid="{944FB3EE-FFCB-4EE7-BA54-05901F8A9A78}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{1E9126A3-1967-4BFD-9B31-35E2354B7859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
